--- a/Raj Chudasama/2022-12-16/Home2 Suites by Hilton Fort Worth Northlake/arrivalllandscape_letter.xlsx
+++ b/Raj Chudasama/2022-12-16/Home2 Suites by Hilton Fort Worth Northlake/arrivalllandscape_letter.xlsx
@@ -34,40 +34,37 @@
     <t>Arrival Date</t>
   </si>
   <si>
-    <t>Depart Date</t>
-  </si>
-  <si>
     <t>Room Type</t>
   </si>
   <si>
-    <t>BLACKMAN III/JOHN</t>
+    <t xml:space="preserve">BLACKMAN III/JOHN </t>
   </si>
   <si>
     <t>Brown/Harry</t>
   </si>
   <si>
-    <t>CAIN/JOLYN</t>
+    <t xml:space="preserve">CAIN/JOLYN </t>
   </si>
   <si>
     <t>Carrasco/Melissa</t>
   </si>
   <si>
-    <t>Cesta/Mark</t>
-  </si>
-  <si>
-    <t>Curtner/Wendy</t>
+    <t xml:space="preserve">DR Cesta/Mark </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curtner/Wendy </t>
   </si>
   <si>
     <t>Duncan/Mandi</t>
   </si>
   <si>
-    <t>DUNCAN/MICHAEL</t>
-  </si>
-  <si>
-    <t>EVANS/ZACHARY</t>
-  </si>
-  <si>
-    <t>FIELDING/ZANE</t>
+    <t xml:space="preserve">DUNCAN/MICHAEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVANS/ZACHARY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIELDING/ZANE </t>
   </si>
   <si>
     <t>Fife/James</t>
@@ -76,13 +73,13 @@
     <t>Flusche/Zach</t>
   </si>
   <si>
-    <t>HANSON/RALPH</t>
-  </si>
-  <si>
-    <t>Henderson/Anthony Hender</t>
-  </si>
-  <si>
-    <t>Johnson/Denise</t>
+    <t xml:space="preserve">HANSON/RALPH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henderson/Anthony Hender </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnson/Denise </t>
   </si>
   <si>
     <t>Johnson/Eddie</t>
@@ -91,13 +88,13 @@
     <t>Johnson/Marshall</t>
   </si>
   <si>
-    <t>Jones/Corwin</t>
+    <t xml:space="preserve">Jones/Corwin </t>
   </si>
   <si>
     <t>Kiffin/Mark</t>
   </si>
   <si>
-    <t>MANESS/GARY</t>
+    <t xml:space="preserve">MR MANESS/GARY </t>
   </si>
   <si>
     <t>McCaig/William</t>
@@ -106,91 +103,94 @@
     <t>McKellips/Rene</t>
   </si>
   <si>
-    <t>RAMSEY/JIM</t>
-  </si>
-  <si>
-    <t>ROCCATO/DOUGLAS</t>
-  </si>
-  <si>
-    <t>Rodgers/Maurice</t>
+    <t xml:space="preserve">RAMSEY/JIM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR ROCCATO/DOUGLAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodgers/Maurice </t>
   </si>
   <si>
     <t>Rodriguez/Bryan</t>
   </si>
   <si>
-    <t>ROSALES/EDGAR</t>
-  </si>
-  <si>
-    <t>SCHERRER/ROBERT</t>
-  </si>
-  <si>
-    <t>SCROGGINS/KIRKLAND</t>
-  </si>
-  <si>
-    <t>SIEFKEN/MYRON</t>
-  </si>
-  <si>
-    <t>SIEGMANN/SHELBY</t>
-  </si>
-  <si>
-    <t>SINGLETON/ROBBIN</t>
-  </si>
-  <si>
-    <t>Spears/Perrin</t>
+    <t xml:space="preserve">ROSALES/EDGAR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR SCHERRER/ROBERT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCROGGINS/KIRKLAND </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIEFKEN/MYRON </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIEGMANN/SHELBY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SINGLETON/ROBBIN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spears/Perrin </t>
   </si>
   <si>
     <t>STANTON/TONY</t>
   </si>
   <si>
-    <t>UNDERWOOD/JOZIAH</t>
-  </si>
-  <si>
-    <t>VO/THANH</t>
+    <t xml:space="preserve">UNDERWOOD/JOZIAH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VO/THANH </t>
   </si>
   <si>
     <t>Wells/April</t>
   </si>
   <si>
-    <t>WILT/PETE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> D </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> B </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> G </t>
-  </si>
-  <si>
-    <t>OMNI AIR</t>
-  </si>
-  <si>
-    <t>EXPEDIA</t>
-  </si>
-  <si>
-    <t>Expedia Adv Purch</t>
-  </si>
-  <si>
-    <t>Expedia Room Only</t>
-  </si>
-  <si>
-    <t>MONDELEZ INTERNATION</t>
-  </si>
-  <si>
-    <t>HONORS ADV PURCHASE</t>
-  </si>
-  <si>
-    <t>BOOKING COM</t>
-  </si>
-  <si>
-    <t>SIEMENS</t>
-  </si>
-  <si>
-    <t>HOTEL ENGINE CHAINWI</t>
+    <t xml:space="preserve">WILT/PETE </t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OMNI AIR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXPEDIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expedia Adv Purch </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expedia Room Only </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONDELEZ INTERNATION </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HONORS ADV PURCHASE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOOKING COM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIEMENS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOTEL ENGINE CHAINWI </t>
   </si>
   <si>
     <t>$102.00</t>
@@ -301,7 +301,7 @@
     <t>L-P18</t>
   </si>
   <si>
-    <t xml:space="preserve">  S-H2A</t>
+    <t>S-H2A</t>
   </si>
   <si>
     <t>L-3GF</t>
@@ -310,7 +310,7 @@
     <t>S-G15</t>
   </si>
   <si>
-    <t>12/16/2022</t>
+    <t>12/22/2022</t>
   </si>
   <si>
     <t>NKJ</t>
@@ -683,13 +683,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,19 +711,16 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
         <v>59</v>
@@ -734,13 +731,13 @@
       <c r="F2" t="s">
         <v>98</v>
       </c>
-      <c r="H2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="G2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
         <v>83</v>
@@ -748,13 +745,13 @@
       <c r="F3" t="s">
         <v>98</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
         <v>83</v>
@@ -762,19 +759,19 @@
       <c r="F4" t="s">
         <v>98</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
         <v>59</v>
@@ -785,16 +782,16 @@
       <c r="F5" t="s">
         <v>98</v>
       </c>
-      <c r="H5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="G5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
         <v>60</v>
@@ -805,16 +802,16 @@
       <c r="F6" t="s">
         <v>98</v>
       </c>
-      <c r="H6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="G6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
         <v>61</v>
@@ -825,16 +822,19 @@
       <c r="F7" t="s">
         <v>98</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
       </c>
       <c r="D8" t="s">
         <v>62</v>
@@ -845,13 +845,13 @@
       <c r="F8" t="s">
         <v>98</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
         <v>83</v>
@@ -859,16 +859,16 @@
       <c r="F9" t="s">
         <v>98</v>
       </c>
-      <c r="H9" t="s">
+      <c r="G9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
         <v>63</v>
@@ -879,19 +879,19 @@
       <c r="F10" t="s">
         <v>98</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G10" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
         <v>59</v>
@@ -902,16 +902,16 @@
       <c r="F11" t="s">
         <v>98</v>
       </c>
-      <c r="H11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="G11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
         <v>64</v>
@@ -922,13 +922,13 @@
       <c r="F12" t="s">
         <v>98</v>
       </c>
-      <c r="H12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="G12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>52</v>
@@ -942,16 +942,16 @@
       <c r="F13" t="s">
         <v>98</v>
       </c>
-      <c r="H13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="G13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
         <v>66</v>
@@ -962,16 +962,16 @@
       <c r="F14" t="s">
         <v>98</v>
       </c>
-      <c r="H14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="G14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
         <v>67</v>
@@ -982,16 +982,16 @@
       <c r="F15" t="s">
         <v>98</v>
       </c>
-      <c r="H15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="G15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
         <v>67</v>
@@ -1002,16 +1002,16 @@
       <c r="F16" t="s">
         <v>98</v>
       </c>
-      <c r="H16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="G16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
         <v>68</v>
@@ -1022,16 +1022,16 @@
       <c r="F17" t="s">
         <v>98</v>
       </c>
-      <c r="H17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="G17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
         <v>69</v>
@@ -1042,13 +1042,13 @@
       <c r="F18" t="s">
         <v>98</v>
       </c>
-      <c r="H18" t="s">
+      <c r="G18" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s">
         <v>83</v>
@@ -1056,13 +1056,13 @@
       <c r="F19" t="s">
         <v>98</v>
       </c>
-      <c r="H19" t="s">
+      <c r="G19" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
         <v>53</v>
@@ -1076,16 +1076,16 @@
       <c r="F20" t="s">
         <v>98</v>
       </c>
-      <c r="H20" t="s">
+      <c r="G20" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
         <v>62</v>
@@ -1096,16 +1096,16 @@
       <c r="F21" t="s">
         <v>98</v>
       </c>
-      <c r="H21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="G21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
         <v>71</v>
@@ -1116,16 +1116,16 @@
       <c r="F22" t="s">
         <v>98</v>
       </c>
-      <c r="H22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="G22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
         <v>54</v>
@@ -1139,13 +1139,13 @@
       <c r="F23" t="s">
         <v>98</v>
       </c>
-      <c r="H23" t="s">
+      <c r="G23" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E24" t="s">
         <v>86</v>
@@ -1153,16 +1153,16 @@
       <c r="F24" t="s">
         <v>98</v>
       </c>
-      <c r="H24" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="G24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
         <v>73</v>
@@ -1173,16 +1173,16 @@
       <c r="F25" t="s">
         <v>98</v>
       </c>
-      <c r="H25" t="s">
+      <c r="G25" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D26" t="s">
         <v>63</v>
@@ -1193,16 +1193,16 @@
       <c r="F26" t="s">
         <v>98</v>
       </c>
-      <c r="H26" t="s">
+      <c r="G26" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D27" t="s">
         <v>63</v>
@@ -1213,16 +1213,16 @@
       <c r="F27" t="s">
         <v>98</v>
       </c>
-      <c r="H27" t="s">
+      <c r="G27" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
         <v>55</v>
@@ -1236,16 +1236,16 @@
       <c r="F28" t="s">
         <v>98</v>
       </c>
-      <c r="H28" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="G28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D29" t="s">
         <v>75</v>
@@ -1256,13 +1256,13 @@
       <c r="F29" t="s">
         <v>98</v>
       </c>
-      <c r="H29" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="G29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
         <v>56</v>
@@ -1276,19 +1276,19 @@
       <c r="F30" t="s">
         <v>98</v>
       </c>
-      <c r="H30" t="s">
+      <c r="G30" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D31" t="s">
         <v>59</v>
@@ -1299,19 +1299,19 @@
       <c r="F31" t="s">
         <v>98</v>
       </c>
-      <c r="H31" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="G31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" t="s">
         <v>49</v>
-      </c>
-      <c r="C32" t="s">
-        <v>50</v>
       </c>
       <c r="D32" t="s">
         <v>59</v>
@@ -1322,19 +1322,19 @@
       <c r="F32" t="s">
         <v>98</v>
       </c>
-      <c r="H32" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="G32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D33" t="s">
         <v>59</v>
@@ -1345,16 +1345,16 @@
       <c r="F33" t="s">
         <v>98</v>
       </c>
-      <c r="H33" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="G33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D34" t="s">
         <v>77</v>
@@ -1365,19 +1365,19 @@
       <c r="F34" t="s">
         <v>98</v>
       </c>
-      <c r="H34" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="G34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D35" t="s">
         <v>59</v>
@@ -1388,16 +1388,16 @@
       <c r="F35" t="s">
         <v>98</v>
       </c>
-      <c r="H35" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="G35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
         <v>57</v>
@@ -1411,16 +1411,16 @@
       <c r="F36" t="s">
         <v>98</v>
       </c>
-      <c r="H36" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="G36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D37" t="s">
         <v>78</v>
@@ -1431,13 +1431,13 @@
       <c r="F37" t="s">
         <v>98</v>
       </c>
-      <c r="H37" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="G37" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
         <v>58</v>
@@ -1451,19 +1451,19 @@
       <c r="F38" t="s">
         <v>98</v>
       </c>
-      <c r="H38" t="s">
+      <c r="G38" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D39" t="s">
         <v>59</v>
@@ -1474,19 +1474,19 @@
       <c r="F39" t="s">
         <v>98</v>
       </c>
-      <c r="H39" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="G39" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D40" t="s">
         <v>59</v>
@@ -1497,19 +1497,19 @@
       <c r="F40" t="s">
         <v>98</v>
       </c>
-      <c r="H40" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="G40" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D41" t="s">
         <v>59</v>
@@ -1520,13 +1520,13 @@
       <c r="F41" t="s">
         <v>98</v>
       </c>
-      <c r="H41" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="G41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C42" t="s">
         <v>53</v>
@@ -1540,16 +1540,16 @@
       <c r="F42" t="s">
         <v>98</v>
       </c>
-      <c r="H42" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="G42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D43" t="s">
         <v>81</v>
@@ -1560,7 +1560,7 @@
       <c r="F43" t="s">
         <v>98</v>
       </c>
-      <c r="H43" t="s">
+      <c r="G43" t="s">
         <v>99</v>
       </c>
     </row>
